--- a/fuentes/contenidos/grado03/guion04/SolicitudGrafica_CN_03_04_CO_REC180.xlsx
+++ b/fuentes/contenidos/grado03/guion04/SolicitudGrafica_CN_03_04_CO_REC180.xlsx
@@ -520,7 +520,7 @@
     <t>Imagen ciclo del agua</t>
   </si>
   <si>
-    <t>CN_08_01_REC180</t>
+    <t>CN_03_04_REC180</t>
   </si>
 </sst>
 </file>
@@ -2244,9 +2244,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="F10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_REC180_IMG01n.png</v>
+        <v>CN_03_04_REC180_IMG01n.png</v>
       </c>
       <c r="G10" s="14" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="H10" s="14" t="str">
         <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_08_01_REC180_IMG01a.png</v>
+        <v>CN_03_04_REC180_IMG01a.png</v>
       </c>
       <c r="I10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
